--- a/data/trans_dic/P36$huevo-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,46</t>
+          <t>3,95; 8,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,89</t>
+          <t>3,6; 7,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 12,21</t>
+          <t>6,49; 12,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,86</t>
+          <t>1,56; 4,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,66</t>
+          <t>1,37; 4,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 12,07</t>
+          <t>6,12; 12,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,91</t>
+          <t>3,13; 5,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,55</t>
+          <t>2,74; 5,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,31</t>
+          <t>7,21; 11,35</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,38</t>
+          <t>3,21; 6,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,14</t>
+          <t>3,86; 7,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,83</t>
+          <t>6,84; 11,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,58</t>
+          <t>1,16; 3,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,93</t>
+          <t>1,84; 4,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,48</t>
+          <t>3,68; 7,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,58</t>
+          <t>2,55; 4,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,47</t>
+          <t>3,14; 5,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 8,9</t>
+          <t>5,78; 9,02</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,54</t>
+          <t>2,45; 5,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,25</t>
+          <t>2,91; 6,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,05</t>
+          <t>5,88; 9,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,6</t>
+          <t>1,68; 4,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,04</t>
+          <t>1,62; 3,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,75</t>
+          <t>5,78; 9,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,53</t>
+          <t>2,43; 4,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,46</t>
+          <t>2,53; 4,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,34</t>
+          <t>6,18; 9,2</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,03</t>
+          <t>2,13; 5,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,28</t>
+          <t>3,53; 7,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,68</t>
+          <t>5,57; 9,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,32</t>
+          <t>0,81; 3,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,94</t>
+          <t>1,62; 4,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,92</t>
+          <t>3,29; 6,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,96</t>
+          <t>1,85; 4,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,41</t>
+          <t>3,03; 5,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,52</t>
+          <t>4,96; 7,78</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1126,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,53</t>
+          <t>0,47; 3,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,43</t>
+          <t>1,95; 5,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,31</t>
+          <t>5,18; 10,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,99</t>
+          <t>0,49; 2,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1151,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,74</t>
+          <t>4,04; 9,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,45</t>
+          <t>0,65; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,85</t>
+          <t>1,7; 3,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,79</t>
+          <t>5,21; 8,69</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,81</t>
+          <t>0,96; 4,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,71</t>
+          <t>0,32; 2,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,85</t>
+          <t>2,6; 7,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,64</t>
+          <t>0,63; 3,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,23</t>
+          <t>0,25; 3,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,66</t>
+          <t>3,32; 8,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,51</t>
+          <t>0,96; 3,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,24</t>
+          <t>0,44; 2,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,61</t>
+          <t>3,45; 6,66</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,09</t>
+          <t>0,46; 4,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,3</t>
+          <t>1,81; 6,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,73</t>
+          <t>0,34; 2,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,26</t>
+          <t>0,26; 3,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,74</t>
+          <t>2,23; 7,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,14</t>
+          <t>0,21; 1,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,59</t>
+          <t>0,49; 2,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,85</t>
+          <t>2,49; 5,7</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,31</t>
+          <t>3,05; 4,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,91</t>
+          <t>3,51; 4,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,61; 8,37</t>
+          <t>6,58; 8,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,63</t>
+          <t>1,64; 2,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,93</t>
+          <t>1,83; 2,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,89</t>
+          <t>5,23; 6,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,25</t>
+          <t>2,45; 3,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,73</t>
+          <t>2,83; 3,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,16; 7,39</t>
+          <t>6,1; 7,35</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, alimentos como huevos, queso, jamón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28609</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24284</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38739</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13624</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10996</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34747</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42233</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35280</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>73485</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19480; 40374</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16344; 35640</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27237; 50794</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7314; 21174</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5876; 19102</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24182; 47907</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30068; 56306</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24207; 47558</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>58678; 92425</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33499</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36426</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>54188</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13570</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18697</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30619</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47069</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55124</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84807</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23639; 45614</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26486; 49428</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40413; 69234</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7225; 22209</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11218; 29584</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20755; 41883</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34699; 61853</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40631; 70428</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>66759; 104057</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24028</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28787</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51499</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20050</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18948</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50133</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44078</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47735</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>101632</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15566; 36494</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19766; 42376</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39372; 66355</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11622; 30469</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11519; 28129</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38249; 65029</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32130; 59710</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35083; 64184</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82243; 122382</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18934</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31867</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>47933</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8679</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18174</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31847</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27613</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>50042</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>79780</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11032; 30051</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21630; 43887</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>35886; 64085</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4178; 16787</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9966; 28794</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21326; 44687</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19111; 41718</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>37257; 66163</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64086; 100534</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5640</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14629</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35573</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5294</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8190</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30440</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10934</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22818</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>66014</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1824; 13318</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8356; 23417</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>24744; 49614</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1985; 11680</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4079; 17132</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20075; 45278</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5174; 19444</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14898; 34522</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50800; 84697</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6461</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14712</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6025</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19931</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12486</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6772</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>34643</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2813; 13918</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>982; 9058</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8694; 24464</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2155; 12872</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>894; 10818</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12556; 30254</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6111; 20403</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2905; 14910</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>24550; 47451</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9309</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3415</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16592</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8134</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>25901</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4179</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1138; 9961</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4630; 15940</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1119; 9069</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1008; 11935</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8901; 28046</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1119; 9715</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3114; 16072</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>16263; 37311</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>117992</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>143221</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>251953</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>70658</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>82684</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>214308</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>188650</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>225905</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>466261</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>99597; 142048</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>119929; 169409</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>223198; 280357</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>55194; 89177</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>65029; 104497</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>185120; 243954</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>162591; 218052</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>197467; 256117</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>422647; 509481</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>